--- a/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Valparaiso.xlsx
+++ b/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Valparaiso.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="Microsoft Office Excel"/>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R5e395cde4b924529"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R1970ff5366d64001"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -234,6 +234,1926 @@
     </x:row>
     <x:row r="4">
       <x:c s="5" t="d">
+        <x:v>2013-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>225242</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1724434.06093</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2455</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5087363.5331975</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>84575.680505</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c s="5" t="d">
+        <x:v>2013-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>226049</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1742469.3258895</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2463</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5191187.2509135</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>86882.61187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c s="5" t="d">
+        <x:v>2013-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>227319</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1761214.9877485</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2466</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5145780.6431467</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>90909.375429</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c s="5" t="d">
+        <x:v>2013-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>228825</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1740470.9385512</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2471</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5421633.5471469</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>87810.315571</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c s="5" t="d">
+        <x:v>2013-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>229954</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1766242.4580394</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2485</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5686194.3722334</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>95109.595362</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c s="5" t="d">
+        <x:v>2013-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>231078</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1802664.6205004</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2490</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5421642.8373494</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>99274.499279</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c s="5" t="d">
+        <x:v>2013-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>232440</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1764686.8760798</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2492</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5554348.0413322</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>90963.80129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c s="5" t="d">
+        <x:v>2013-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>233659</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1732795.2639016</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2487</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5753784.2625653</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>96512.063153</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c s="5" t="d">
+        <x:v>2013-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>234563</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1754238.8411087</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2489</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5921042.9369224</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>91357.566369</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c s="5" t="d">
+        <x:v>2013-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>235847</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1713171.0995772</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2497</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6071999.7949539</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>99705.301033</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c s="5" t="d">
+        <x:v>2013-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>237201</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1717983.778226</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2505</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5880544.9660678</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>101969.801273</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c s="5" t="d">
+        <x:v>2013-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>238236</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1787164.7526276</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2520</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5633304.0813492</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>102356.348251</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c s="5" t="d">
+        <x:v>2014-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>239118</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1804566.8818909</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2525</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5904231.1920792</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>107579.76063</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c s="5" t="d">
+        <x:v>2014-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>239688</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1814398.4982769</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2528</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6065395.7274525</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>110700.973894</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c s="5" t="d">
+        <x:v>2014-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>241024</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1851225.2583975</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2539</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6012693.3962189</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>101329.8474</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c s="5" t="d">
+        <x:v>2014-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>242125</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1832188.1559855</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2537</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6146923.0626724</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>110866.456995</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c s="5" t="d">
+        <x:v>2014-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>245326</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1824671.5115845</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2542</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6226431.7690794</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>120936.146222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c s="5" t="d">
+        <x:v>2014-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>246931</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1845592.7974251</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2542</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6062720.5306845</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>111909.009413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c s="5" t="d">
+        <x:v>2014-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>248490</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1790695.0995734</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2544</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6400176.8227201</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>112999.772545</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c s="5" t="d">
+        <x:v>2014-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>249658</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1767233.1574233</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2553</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6544223.6537406</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>117485.288958</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c s="5" t="d">
+        <x:v>2014-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>251010</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1795735.6752041</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2561</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7185172.3076923</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>116619.586059</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c s="5" t="d">
+        <x:v>2014-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>252249</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1794768.6744288</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2579</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6942535.3966653</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>120258.053421</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c s="5" t="d">
+        <x:v>2014-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>253830</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1811388.5989559</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2590</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7330366.0671814</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>123306.457035</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c s="5" t="d">
+        <x:v>2014-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>254961</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1898132.8312526</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2609</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7304519.1096205</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>129271.677946</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c s="5" t="d">
+        <x:v>2015-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>255497</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1939621.8977444</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2613</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7860843.0417145</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>135186.481789</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c s="5" t="d">
+        <x:v>2015-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>255850</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1971359.5175298</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2612</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8342061.6500765</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>135689.352617</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c s="5" t="d">
+        <x:v>2015-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>257577</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1975102.0805312</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2626</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8197142.5479817</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>128876.702643</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c s="5" t="d">
+        <x:v>2015-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>259117</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1982011.1808989</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2624</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8768908.0735518</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>131535.770903</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c s="5" t="d">
+        <x:v>2015-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>260478</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1996712.1093489</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2632</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9213267.5227963</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>138004.650339</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c s="5" t="d">
+        <x:v>2015-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>262171</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2030678.9378535</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2645</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9388826.0982986</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>131263.195075</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c s="5" t="d">
+        <x:v>2015-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>263613</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2011642.8463505</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2649</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9670194.6296715</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>140129.431363</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c s="5" t="d">
+        <x:v>2015-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>265733</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1989532.6566704</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2665</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9755448.4878048</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>133204.67554</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c s="5" t="d">
+        <x:v>2015-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>267390</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1999953.6343318</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2682</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10127298.344891</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>142876.33815</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c s="5" t="d">
+        <x:v>2015-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>268932</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1984838.241139</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2694</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10463100.664439</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>145763.419881</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c s="5" t="d">
+        <x:v>2015-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>270558</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1998883.513461</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2707</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10284803.398226</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>138935.139242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c s="5" t="d">
+        <x:v>2015-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>271737</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2074242.3336571</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2728</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10024076.368035</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>154761.232316</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c s="5" t="d">
+        <x:v>2016-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>272972</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2115988.4495003</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2740</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10502522.229927</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>158839.32689</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c s="5" t="d">
+        <x:v>2016-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>274071</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2133338.6674949</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2746</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10824572.830298</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>150987.398004</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c s="5" t="d">
+        <x:v>2016-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>275415</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2109520.4073924</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2758</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10486058.809282</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>155660.038537</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c s="5" t="d">
+        <x:v>2016-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>276821</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2088909.5148056</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2769</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10456350.843987</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>159704.546013</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c s="5" t="d">
+        <x:v>2016-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>278323</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2099095.3218634</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2782</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10069924.823148</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>163295.774569</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c s="5" t="d">
+        <x:v>2016-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>279696</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2101629.4421443</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2793</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10497389.787325</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>162467.03085</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c s="5" t="d">
+        <x:v>2016-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>281044</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2063258.6509799</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2813</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10005080.364024</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>164148.490978</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c s="5" t="d">
+        <x:v>2016-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>282777</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2011064.2836899</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2836</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10168279.500352</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>162166.263355</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c s="5" t="d">
+        <x:v>2016-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>284169</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2044652.7519785</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2853</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10363975.624956</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>169405.784828</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c s="5" t="d">
+        <x:v>2016-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>285292</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2029725.9351436</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2868</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10596299.807182</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>171058.524531</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c s="5" t="d">
+        <x:v>2016-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>289003</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1987462.3140348</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2895</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10697290.328152</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>165532.266758</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c s="5" t="d">
+        <x:v>2016-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>290289</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2044169.4629248</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2913</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10671654.825266</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>180421.781466</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c s="5" t="d">
+        <x:v>2017-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>291408</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2093143.6939102</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2919</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11061709.376498</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>176536.926654</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c s="5" t="d">
+        <x:v>2017-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>292543</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2088164.0665474</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2927</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11489723.717116</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>178354.616016</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c s="5" t="d">
+        <x:v>2017-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>294291</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2105800.1208667</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2935</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11280701.148892</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>182163.050927</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c s="5" t="d">
+        <x:v>2017-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>295911</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2105636.6107681</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2938</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10840300.012253</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>190274.246465</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c s="5" t="d">
+        <x:v>2017-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>297698</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2111492.0584451</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2950</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10341539.110508</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>200584.872633</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c s="5" t="d">
+        <x:v>2017-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>299115</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2139143.9765006</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2962</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10408102.691424</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>207948.202944</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c s="5" t="d">
+        <x:v>2017-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>300627</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2092334.3582213</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3015</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9860106.1582089</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>200666.839424</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c s="5" t="d">
+        <x:v>2017-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>302373</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2067065.4926928</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3089</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9712049.0903204</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>213229.152681</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c s="5" t="d">
+        <x:v>2017-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>303946</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2080816.9106617</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3142</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9507899.0935709</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>220025.98241</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c s="5" t="d">
+        <x:v>2017-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>305724</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2033332.189779</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3170</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9392754.9656151</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>214270.007659</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c s="5" t="d">
+        <x:v>2017-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>307432</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2019891.1538291</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3222</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8712829.1523898</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>221877.171525</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c s="5" t="d">
+        <x:v>2017-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>308890</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2105358.0306549</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3220</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8401145.2012422</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>237957.393973</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c s="5" t="d">
+        <x:v>2018-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>310355</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2108236.6137101</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3262</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8142372.9031269</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>232319.608155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c s="5" t="d">
+        <x:v>2018-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>311530</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2146791.5968221</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3293</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8113722.1090191</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>238417.664773</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66">
+      <x:c s="5" t="d">
+        <x:v>2018-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>313241</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2152722.7696725</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3318</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8239629.8746232</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>246132.013572</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67">
+      <x:c s="5" t="d">
+        <x:v>2018-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>315009</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2139004.0778517</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3323</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8299715.775504</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>236619.797657</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c s="5" t="d">
+        <x:v>2018-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>316800</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2151907.4590246</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3352</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8300528.2479116</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>253940.004053</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c s="5" t="d">
+        <x:v>2018-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>318301</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2144286.9178544</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3367</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8708668.5503415</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>260511.341596</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c s="5" t="d">
+        <x:v>2018-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>319540</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2110951.141325</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3394</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10357952.324101</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>247344.776261</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c s="5" t="d">
+        <x:v>2018-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>321511</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2072043.5143929</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3413</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8125825.3659537</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>260856.811008</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c s="5" t="d">
+        <x:v>2018-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>322695</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2122090.409402</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3434</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8080542.1464764</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>261154.01793</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c s="5" t="d">
+        <x:v>2018-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>325116</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2057309.0180674</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3436</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7885351.2331199</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>262641.305345</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c s="5" t="d">
+        <x:v>2018-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>325554</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2015741.2019234</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3470</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7941465.3458213</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>265475.3866</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c s="5" t="d">
+        <x:v>2018-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>327222</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2102652.3811418</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3495</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8334013.897854</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>279269.653749</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c s="5" t="d">
+        <x:v>2019-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>329583</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2103197.9476945</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3512</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8222162.5634965</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>275939.050662</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c s="5" t="d">
+        <x:v>2019-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>331109</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2098469.1735893</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3525</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7997984.8782978</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>281166.730368</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c s="5" t="d">
+        <x:v>2019-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>333388</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2120540.2138979</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3549</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8215920.3651732</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>286505.695277</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c s="5" t="d">
+        <x:v>2019-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>335496</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2100917.6032083</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3573</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8617626.7139658</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>284487.573938</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c s="5" t="d">
+        <x:v>2019-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>338103</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2114465.2101075</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3592</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8380936.0292316</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>301559.646044</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c s="5" t="d">
+        <x:v>2019-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>339671</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2124230.6555726</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3608</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7681088.7743902</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>302361.569945</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c s="5" t="d">
+        <x:v>2019-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>342158</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2095723.2521759</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3634</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7800317.3192074</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>294071.46442</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c s="5" t="d">
+        <x:v>2019-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>345539</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2066765.3836238</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3673</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7739565.7065069</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>312607.140391</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c s="5" t="d">
+        <x:v>2019-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>345939</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2100055.2355935</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3027</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8371681.8470432</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>300434.739609</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c s="5" t="d">
+        <x:v>2019-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>346433</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2091050.2695384</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3053</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8311288.8955126</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>316894.972453</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c s="5" t="d">
+        <x:v>2019-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>348298</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2138672.936916</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3094</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8324288.4851325</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>322793.159113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c s="5" t="d">
+        <x:v>2019-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>349487</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2235418.9495889</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3180</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9150488.6286163</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>325135.550065</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88">
+      <x:c s="5" t="d">
+        <x:v>2020-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>350544</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2207446.9685574</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3247</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9418357.2824145</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>341418.182692</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c s="5" t="d">
+        <x:v>2020-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>351426</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2231329.145712</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3301</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9546863.7394728</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>349297.137915</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90">
+      <x:c s="5" t="d">
+        <x:v>2020-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>352500</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2288611.5228851</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3393</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9587196.0798703</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>354865.431401</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91">
+      <x:c s="5" t="d">
+        <x:v>2020-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>351949</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2443723.4401973</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3674</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9379914.3718018</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>393702.992651</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92">
+      <x:c s="5" t="d">
+        <x:v>2020-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>351461</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2591329.1885244</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3809</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9357848.0995011</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>409793.779392</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93">
+      <x:c s="5" t="d">
+        <x:v>2020-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>351833</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2728264.7317875</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3863</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9704404.3505047</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>412898.81859</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94">
+      <x:c s="5" t="d">
+        <x:v>2020-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>351532</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2832123.6943094</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3929</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9741547.7146856</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>454345.149317</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95">
+      <x:c s="5" t="d">
+        <x:v>2020-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>352382</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2995491.7069629</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4011</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9608236.0593368</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>796623.410117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96">
+      <x:c s="5" t="d">
+        <x:v>2020-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>352147</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3226897.567743</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4095</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9951486.0813186</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>785921.895062</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97">
+      <x:c s="5" t="d">
+        <x:v>2020-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>353753</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3268138.842014</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4194</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10553474.407725</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>732802.295059</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98">
+      <x:c s="5" t="d">
+        <x:v>2020-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>356760</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3241307.2823775</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4329</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11038310.963964</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>665660.244571</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99">
+      <x:c s="5" t="d">
+        <x:v>2020-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>358795</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3340920.5911314</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4437</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10641377.193373</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>937155.163577</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100">
+      <x:c s="5" t="d">
         <x:v>2021-01-01T00:00:00.000</x:v>
       </x:c>
       <x:c s="11" t="n">
@@ -252,7 +2172,7 @@
         <x:v>880228.857484</x:v>
       </x:c>
     </x:row>
-    <x:row r="5">
+    <x:row r="101">
       <x:c s="5" t="d">
         <x:v>2021-02-01T00:00:00.000</x:v>
       </x:c>
@@ -272,7 +2192,7 @@
         <x:v>825798.571725</x:v>
       </x:c>
     </x:row>
-    <x:row r="6">
+    <x:row r="102">
       <x:c s="5" t="d">
         <x:v>2021-03-01T00:00:00.000</x:v>
       </x:c>
@@ -292,7 +2212,7 @@
         <x:v>793332.975939</x:v>
       </x:c>
     </x:row>
-    <x:row r="7">
+    <x:row r="103">
       <x:c s="5" t="d">
         <x:v>2021-04-01T00:00:00.000</x:v>
       </x:c>
@@ -312,7 +2232,7 @@
         <x:v>837165.792892</x:v>
       </x:c>
     </x:row>
-    <x:row r="8">
+    <x:row r="104">
       <x:c s="5" t="d">
         <x:v>2021-05-01T00:00:00.000</x:v>
       </x:c>
@@ -332,7 +2252,7 @@
         <x:v>1100992.279415</x:v>
       </x:c>
     </x:row>
-    <x:row r="9">
+    <x:row r="105">
       <x:c s="5" t="d">
         <x:v>2021-06-01T00:00:00.000</x:v>
       </x:c>
@@ -352,7 +2272,7 @@
         <x:v>1049819.370059</x:v>
       </x:c>
     </x:row>
-    <x:row r="10">
+    <x:row r="106">
       <x:c s="5" t="d">
         <x:v>2021-07-01T00:00:00.000</x:v>
       </x:c>
@@ -372,7 +2292,7 @@
         <x:v>1050749.20395</x:v>
       </x:c>
     </x:row>
-    <x:row r="11">
+    <x:row r="107">
       <x:c s="5" t="d">
         <x:v>2021-08-01T00:00:00.000</x:v>
       </x:c>
@@ -392,7 +2312,7 @@
         <x:v>1008348.566946</x:v>
       </x:c>
     </x:row>
-    <x:row r="12">
+    <x:row r="108">
       <x:c s="5" t="d">
         <x:v>2021-09-01T00:00:00.000</x:v>
       </x:c>
@@ -412,7 +2332,7 @@
         <x:v>1001816.495154</x:v>
       </x:c>
     </x:row>
-    <x:row r="13">
+    <x:row r="109">
       <x:c s="5" t="d">
         <x:v>2021-10-01T00:00:00.000</x:v>
       </x:c>
@@ -432,7 +2352,7 @@
         <x:v>956922.910103</x:v>
       </x:c>
     </x:row>
-    <x:row r="14">
+    <x:row r="110">
       <x:c s="5" t="d">
         <x:v>2021-11-01T00:00:00.000</x:v>
       </x:c>
@@ -452,7 +2372,7 @@
         <x:v>920359.941483</x:v>
       </x:c>
     </x:row>
-    <x:row r="15">
+    <x:row r="111">
       <x:c s="5" t="d">
         <x:v>2021-12-01T00:00:00.000</x:v>
       </x:c>
@@ -472,7 +2392,7 @@
         <x:v>917079.204251</x:v>
       </x:c>
     </x:row>
-    <x:row r="16">
+    <x:row r="112">
       <x:c s="5" t="d">
         <x:v>2022-01-01T00:00:00.000</x:v>
       </x:c>
@@ -492,7 +2412,7 @@
         <x:v>847351.386839</x:v>
       </x:c>
     </x:row>
-    <x:row r="17">
+    <x:row r="113">
       <x:c s="5" t="d">
         <x:v>2022-02-01T00:00:00.000</x:v>
       </x:c>
@@ -512,7 +2432,7 @@
         <x:v>803412.796191</x:v>
       </x:c>
     </x:row>
-    <x:row r="18">
+    <x:row r="114">
       <x:c s="5" t="d">
         <x:v>2022-03-01T00:00:00.000</x:v>
       </x:c>
@@ -532,7 +2452,7 @@
         <x:v>770672.486756</x:v>
       </x:c>
     </x:row>
-    <x:row r="19">
+    <x:row r="115">
       <x:c s="5" t="d">
         <x:v>2022-04-01T00:00:00.000</x:v>
       </x:c>
@@ -552,7 +2472,7 @@
         <x:v>750606.249202</x:v>
       </x:c>
     </x:row>
-    <x:row r="20">
+    <x:row r="116">
       <x:c s="5" t="d">
         <x:v>2022-05-01T00:00:00.000</x:v>
       </x:c>
@@ -572,7 +2492,7 @@
         <x:v>717208.406143</x:v>
       </x:c>
     </x:row>
-    <x:row r="21">
+    <x:row r="117">
       <x:c s="5" t="d">
         <x:v>2022-06-01T00:00:00.000</x:v>
       </x:c>
@@ -592,7 +2512,7 @@
         <x:v>693354.763248</x:v>
       </x:c>
     </x:row>
-    <x:row r="22">
+    <x:row r="118">
       <x:c s="5" t="d">
         <x:v>2022-07-01T00:00:00.000</x:v>
       </x:c>
@@ -612,7 +2532,7 @@
         <x:v>667197.477514</x:v>
       </x:c>
     </x:row>
-    <x:row r="23">
+    <x:row r="119">
       <x:c s="5" t="d">
         <x:v>2022-08-01T00:00:00.000</x:v>
       </x:c>
@@ -632,7 +2552,7 @@
         <x:v>648731.853721</x:v>
       </x:c>
     </x:row>
-    <x:row r="24">
+    <x:row r="120">
       <x:c s="5" t="d">
         <x:v>2022-09-01T00:00:00.000</x:v>
       </x:c>
@@ -652,7 +2572,7 @@
         <x:v>643152.551627</x:v>
       </x:c>
     </x:row>
-    <x:row r="25">
+    <x:row r="121">
       <x:c s="5" t="d">
         <x:v>2022-10-01T00:00:00.000</x:v>
       </x:c>
@@ -672,7 +2592,7 @@
         <x:v>623121.151225</x:v>
       </x:c>
     </x:row>
-    <x:row r="26">
+    <x:row r="122">
       <x:c s="5" t="d">
         <x:v>2022-11-01T00:00:00.000</x:v>
       </x:c>
@@ -692,7 +2612,7 @@
         <x:v>595183.020108</x:v>
       </x:c>
     </x:row>
-    <x:row r="27">
+    <x:row r="123">
       <x:c s="5" t="d">
         <x:v>2022-12-01T00:00:00.000</x:v>
       </x:c>
@@ -712,7 +2632,7 @@
         <x:v>610003.721942</x:v>
       </x:c>
     </x:row>
-    <x:row r="28">
+    <x:row r="124">
       <x:c s="5" t="d">
         <x:v>2023-01-01T00:00:00.000</x:v>
       </x:c>
@@ -732,7 +2652,7 @@
         <x:v>588923.048855</x:v>
       </x:c>
     </x:row>
-    <x:row r="29">
+    <x:row r="125">
       <x:c s="5" t="d">
         <x:v>2023-02-01T00:00:00.000</x:v>
       </x:c>
@@ -752,7 +2672,7 @@
         <x:v>586367.313709</x:v>
       </x:c>
     </x:row>
-    <x:row r="30">
+    <x:row r="126">
       <x:c s="5" t="d">
         <x:v>2023-03-01T00:00:00.000</x:v>
       </x:c>
@@ -772,7 +2692,7 @@
         <x:v>585356.093348</x:v>
       </x:c>
     </x:row>
-    <x:row r="31">
+    <x:row r="127">
       <x:c s="5" t="d">
         <x:v>2023-04-01T00:00:00.000</x:v>
       </x:c>
@@ -792,7 +2712,7 @@
         <x:v>585969.762848</x:v>
       </x:c>
     </x:row>
-    <x:row r="32">
+    <x:row r="128">
       <x:c s="5" t="d">
         <x:v>2023-05-01T00:00:00.000</x:v>
       </x:c>
@@ -812,7 +2732,7 @@
         <x:v>566979.895783</x:v>
       </x:c>
     </x:row>
-    <x:row r="33">
+    <x:row r="129">
       <x:c s="5" t="d">
         <x:v>2023-06-01T00:00:00.000</x:v>
       </x:c>
@@ -832,7 +2752,7 @@
         <x:v>570747.877095</x:v>
       </x:c>
     </x:row>
-    <x:row r="34">
+    <x:row r="130">
       <x:c s="5" t="d">
         <x:v>2023-07-01T00:00:00.000</x:v>
       </x:c>
@@ -852,7 +2772,7 @@
         <x:v>542591.480643</x:v>
       </x:c>
     </x:row>
-    <x:row r="35">
+    <x:row r="131">
       <x:c s="5" t="d">
         <x:v>2023-08-01T00:00:00.000</x:v>
       </x:c>
@@ -872,7 +2792,7 @@
         <x:v>549404.222764</x:v>
       </x:c>
     </x:row>
-    <x:row r="36">
+    <x:row r="132">
       <x:c s="5" t="d">
         <x:v>2023-09-01T00:00:00.000</x:v>
       </x:c>
@@ -892,7 +2812,7 @@
         <x:v>562303.485886</x:v>
       </x:c>
     </x:row>
-    <x:row r="37">
+    <x:row r="133">
       <x:c s="5" t="d">
         <x:v>2023-10-01T00:00:00.000</x:v>
       </x:c>
@@ -912,7 +2832,7 @@
         <x:v>544079.764968</x:v>
       </x:c>
     </x:row>
-    <x:row r="38">
+    <x:row r="134">
       <x:c s="5" t="d">
         <x:v>2023-11-01T00:00:00.000</x:v>
       </x:c>
@@ -932,7 +2852,7 @@
         <x:v>543688.691171</x:v>
       </x:c>
     </x:row>
-    <x:row r="39">
+    <x:row r="135">
       <x:c s="5" t="d">
         <x:v>2023-12-01T00:00:00.000</x:v>
       </x:c>
@@ -952,7 +2872,7 @@
         <x:v>565574.715618</x:v>
       </x:c>
     </x:row>
-    <x:row r="40">
+    <x:row r="136">
       <x:c s="5" t="d">
         <x:v>2024-01-01T00:00:00.000</x:v>
       </x:c>
@@ -972,7 +2892,7 @@
         <x:v>559743.386495</x:v>
       </x:c>
     </x:row>
-    <x:row r="41">
+    <x:row r="137">
       <x:c s="5" t="d">
         <x:v>2024-02-01T00:00:00.000</x:v>
       </x:c>
@@ -992,7 +2912,7 @@
         <x:v>578239.822634</x:v>
       </x:c>
     </x:row>
-    <x:row r="42">
+    <x:row r="138">
       <x:c s="5" t="d">
         <x:v>2024-03-01T00:00:00.000</x:v>
       </x:c>
@@ -1012,7 +2932,7 @@
         <x:v>583353.383183</x:v>
       </x:c>
     </x:row>
-    <x:row r="43">
+    <x:row r="139">
       <x:c s="5" t="d">
         <x:v>2024-04-01T00:00:00.000</x:v>
       </x:c>
@@ -1032,7 +2952,7 @@
         <x:v>568624.502413</x:v>
       </x:c>
     </x:row>
-    <x:row r="44">
+    <x:row r="140">
       <x:c s="5" t="d">
         <x:v>2024-05-01T00:00:00.000</x:v>
       </x:c>
@@ -1052,7 +2972,7 @@
         <x:v>587485.217121</x:v>
       </x:c>
     </x:row>
-    <x:row r="45">
+    <x:row r="141">
       <x:c s="5" t="d">
         <x:v>2024-06-01T00:00:00.000</x:v>
       </x:c>
@@ -1072,7 +2992,7 @@
         <x:v>584993.068615</x:v>
       </x:c>
     </x:row>
-    <x:row r="46">
+    <x:row r="142">
       <x:c s="5" t="d">
         <x:v>2024-07-01T00:00:00.000</x:v>
       </x:c>
@@ -1092,7 +3012,7 @@
         <x:v>565750.351272</x:v>
       </x:c>
     </x:row>
-    <x:row r="47">
+    <x:row r="143">
       <x:c s="5" t="d">
         <x:v>2024-08-01T00:00:00.000</x:v>
       </x:c>
